--- a/data/2026-02-01/fitness_data_20260206_114306.xlsx
+++ b/data/2026-02-01/fitness_data_20260206_114306.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Walkathon\fitness-challenge\data\2026-02-01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECD4B9C-36BA-464C-8DE9-3A9A4EDFE72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="13212" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="224">
   <si>
     <t>folder_name</t>
   </si>
@@ -692,8 +698,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +711,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -742,27 +756,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -800,7 +825,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -834,6 +859,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -868,9 +894,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1043,14 +1070,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B119" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,18 +1120,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>149</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11553</v>
       </c>
       <c r="E2">
         <v>421</v>
@@ -1108,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1119,7 +1157,7 @@
         <v>150</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10422</v>
       </c>
       <c r="E3">
         <v>533</v>
@@ -1137,7 +1175,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1160,13 +1198,13 @@
         <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1177,7 +1215,7 @@
         <v>151</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>15597</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,14 +1226,11 @@
       <c r="G5">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>211</v>
-      </c>
       <c r="I5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1241,7 @@
         <v>151</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="E6">
         <v>54</v>
@@ -1224,7 +1259,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1270,7 @@
         <v>151</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="E7">
         <v>73</v>
@@ -1253,7 +1288,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +1317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1328,7 @@
         <v>152</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10353</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1311,7 +1346,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1375,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1386,7 @@
         <v>153</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>20013</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1366,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1388,11 +1423,14 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="H12" t="s">
+        <v>211</v>
+      </c>
       <c r="I12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1421,7 +1459,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1476,7 @@
         <v>1095</v>
       </c>
       <c r="F14">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1447,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1458,7 +1496,7 @@
         <v>154</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4728</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1476,7 +1514,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1525,7 @@
         <v>155</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>17558</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1502,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1560,7 +1598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10870</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1615,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1682,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1655,7 +1693,7 @@
         <v>158</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5311</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1670,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1737,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1710,7 +1748,7 @@
         <v>158</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>15829</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1725,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1754,7 +1792,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1765,7 +1803,7 @@
         <v>159</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>11047</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1780,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1791,7 +1829,7 @@
         <v>160</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>6320</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1806,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1855,7 @@
         <v>161</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1832,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1843,7 +1881,7 @@
         <v>162</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1858,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1907,7 @@
         <v>163</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1884,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +1933,7 @@
         <v>164</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5848</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1910,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1959,7 @@
         <v>164</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1936,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1947,7 +1985,7 @@
         <v>164</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1962,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1973,7 +2011,7 @@
         <v>164</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1988,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1999,7 +2037,7 @@
         <v>164</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>6320</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2014,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +2063,7 @@
         <v>164</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>5848</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2040,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2051,7 +2089,7 @@
         <v>164</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>6488</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2066,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2077,7 +2115,7 @@
         <v>165</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>21131</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2092,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2159,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2132,7 +2170,7 @@
         <v>166</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>11546</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2150,7 +2188,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2161,7 +2199,7 @@
         <v>167</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>2301</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2176,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2205,7 +2243,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2216,7 +2254,7 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2231,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2260,7 +2298,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2271,7 +2309,7 @@
         <v>168</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>7784</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2289,7 +2327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2318,7 +2356,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2329,7 +2367,7 @@
         <v>169</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>17179</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2344,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2355,7 +2393,7 @@
         <v>170</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>10451</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2370,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2381,7 +2419,7 @@
         <v>170</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>10451</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2396,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2407,7 +2445,7 @@
         <v>171</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>17352</v>
       </c>
       <c r="E50">
         <v>432</v>
@@ -2422,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2433,7 +2471,7 @@
         <v>171</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>20681</v>
       </c>
       <c r="E51">
         <v>515</v>
@@ -2448,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2477,7 +2515,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +2544,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2517,7 +2555,7 @@
         <v>172</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>11803</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2532,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2561,7 +2599,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2572,7 +2610,7 @@
         <v>173</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2661</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2587,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2616,7 +2654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2627,7 +2665,7 @@
         <v>173</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1990</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2642,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2671,7 +2709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2720,7 @@
         <v>174</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>7726</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2697,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2726,7 +2764,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2737,7 +2775,7 @@
         <v>175</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>9618</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2752,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2763,7 +2801,7 @@
         <v>176</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>21179</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2781,7 +2819,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2810,7 +2848,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2839,7 +2877,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2856,7 +2894,7 @@
         <v>179</v>
       </c>
       <c r="F66">
-        <v>9.119999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -2868,7 +2906,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2897,7 +2935,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2908,7 +2946,7 @@
         <v>180</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>12792</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2923,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2952,7 +2990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2963,7 +3001,7 @@
         <v>181</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>11466</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2978,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3007,7 +3045,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3036,7 +3074,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3047,7 +3085,7 @@
         <v>181</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>10344</v>
       </c>
       <c r="E73">
         <v>649</v>
@@ -3062,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3091,7 +3129,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3102,7 +3140,7 @@
         <v>182</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>2641</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3113,14 +3151,11 @@
       <c r="G75">
         <v>23</v>
       </c>
-      <c r="H75" t="s">
-        <v>211</v>
-      </c>
       <c r="I75">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3149,7 +3184,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3160,7 +3195,7 @@
         <v>183</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>17169</v>
       </c>
       <c r="E77">
         <v>230</v>
@@ -3175,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3204,7 +3239,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3215,7 +3250,7 @@
         <v>183</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>8023</v>
       </c>
       <c r="E79">
         <v>314</v>
@@ -3233,7 +3268,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3262,7 +3297,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3279,7 +3314,7 @@
         <v>205</v>
       </c>
       <c r="F81">
-        <v>0.529</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="G81">
         <v>28</v>
@@ -3291,7 +3326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3308,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G82">
         <v>10</v>
@@ -3320,7 +3355,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3349,7 +3384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3360,7 +3395,7 @@
         <v>184</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>12724</v>
       </c>
       <c r="E84">
         <v>844</v>
@@ -3375,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3386,7 +3421,7 @@
         <v>184</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>16139</v>
       </c>
       <c r="E85">
         <v>819</v>
@@ -3401,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3412,7 +3447,7 @@
         <v>185</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>13503</v>
       </c>
       <c r="E86">
         <v>2470</v>
@@ -3427,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3456,7 +3491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3467,7 +3502,7 @@
         <v>185</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>13503</v>
       </c>
       <c r="E88">
         <v>2470</v>
@@ -3482,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3493,7 +3528,7 @@
         <v>186</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>12075</v>
       </c>
       <c r="E89">
         <v>110000</v>
@@ -3508,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3519,7 +3554,7 @@
         <v>186</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>12075</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3534,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3563,7 +3598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3592,7 +3627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3621,7 +3656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3632,7 +3667,7 @@
         <v>187</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>10205</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3647,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3676,7 +3711,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3705,7 +3740,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3734,7 +3769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3745,7 +3780,7 @@
         <v>188</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>12799</v>
       </c>
       <c r="E98">
         <v>76</v>
@@ -3760,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3782,11 +3817,14 @@
       <c r="G99">
         <v>0</v>
       </c>
+      <c r="H99" t="s">
+        <v>211</v>
+      </c>
       <c r="I99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3797,7 +3835,7 @@
         <v>190</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>8126</v>
       </c>
       <c r="E100">
         <v>1748</v>
@@ -3815,7 +3853,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3826,7 +3864,7 @@
         <v>191</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>10439</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3841,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3852,7 +3890,7 @@
         <v>192</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>6733</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -3867,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3878,7 +3916,7 @@
         <v>192</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>5101</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -3893,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -3904,7 +3942,7 @@
         <v>192</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>5692</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3919,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3930,7 +3968,7 @@
         <v>192</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3945,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -3956,7 +3994,7 @@
         <v>193</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>2619</v>
       </c>
       <c r="E106">
         <v>124</v>
@@ -3974,7 +4012,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4003,7 +4041,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4014,7 +4052,7 @@
         <v>193</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>2521</v>
       </c>
       <c r="E108">
         <v>102</v>
@@ -4032,7 +4070,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4043,7 +4081,7 @@
         <v>194</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4061,7 +4099,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4090,7 +4128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4101,7 +4139,7 @@
         <v>196</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>6324</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4116,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -4145,7 +4183,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -4174,7 +4212,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -4203,7 +4241,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -4214,7 +4252,7 @@
         <v>198</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>20072</v>
       </c>
       <c r="E115">
         <v>635</v>
@@ -4225,14 +4263,11 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115" t="s">
-        <v>211</v>
-      </c>
       <c r="I115">
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4261,7 +4296,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -4272,7 +4307,7 @@
         <v>199</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>6346</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4287,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -4298,7 +4333,7 @@
         <v>199</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>6346</v>
       </c>
       <c r="E118">
         <v>1497</v>
@@ -4313,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -4342,7 +4377,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4353,7 +4388,7 @@
         <v>200</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>16533</v>
       </c>
       <c r="E120">
         <v>2206</v>
@@ -4368,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4397,7 +4432,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -4423,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4434,7 +4469,7 @@
         <v>201</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>18268</v>
       </c>
       <c r="E123">
         <v>704</v>
@@ -4449,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4460,7 +4495,7 @@
         <v>201</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>18268</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4475,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -4486,7 +4521,7 @@
         <v>202</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>11598</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4501,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4512,7 +4547,7 @@
         <v>203</v>
       </c>
       <c r="D126">
-        <v>20000</v>
+        <v>14753</v>
       </c>
       <c r="E126">
         <v>2550</v>
@@ -4523,14 +4558,11 @@
       <c r="G126">
         <v>120</v>
       </c>
-      <c r="H126" t="s">
-        <v>211</v>
-      </c>
       <c r="I126">
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -4559,7 +4591,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -4570,7 +4602,7 @@
         <v>204</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>10010</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -4585,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -4596,7 +4628,7 @@
         <v>205</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>12417</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -4611,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -4622,7 +4654,7 @@
         <v>206</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>5457</v>
       </c>
       <c r="E130">
         <v>258</v>
@@ -4637,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -4648,7 +4680,7 @@
         <v>206</v>
       </c>
       <c r="D131">
-        <v>20000</v>
+        <v>5457</v>
       </c>
       <c r="E131">
         <v>258</v>
@@ -4666,7 +4698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -4695,7 +4727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -4706,7 +4738,7 @@
         <v>207</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>5649</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -4721,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -4732,7 +4764,7 @@
         <v>207</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>10393</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -4747,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -4758,7 +4790,7 @@
         <v>208</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>15457</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4776,7 +4808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -4805,7 +4837,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -4816,7 +4848,7 @@
         <v>209</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>8584</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4831,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -4860,7 +4892,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -4890,19 +4922,22 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{87B9F4CE-AE47-4FC5-8647-A2E21E446BB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4928,7 +4963,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>186</v>
       </c>
@@ -4951,7 +4986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -4974,7 +5009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -5000,7 +5035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -5026,7 +5061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -5052,7 +5087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -5078,7 +5113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -5104,7 +5139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -5127,7 +5162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -5153,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -5179,7 +5214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -5205,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -5228,7 +5263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -5251,7 +5286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -5274,7 +5309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -5297,7 +5332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -5320,7 +5355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>164</v>
       </c>
@@ -5343,7 +5378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>165</v>
       </c>
@@ -5369,7 +5404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -5395,7 +5430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -5421,7 +5456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -5447,7 +5482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -5470,7 +5505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -5493,7 +5528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>171</v>
       </c>
@@ -5519,7 +5554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -5542,7 +5577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -5568,7 +5603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -5591,7 +5626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -5617,7 +5652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -5643,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -5669,7 +5704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -5680,7 +5715,7 @@
         <v>179</v>
       </c>
       <c r="D32">
-        <v>9.119999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E32">
         <v>50</v>
@@ -5695,7 +5730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -5721,7 +5756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -5747,7 +5782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -5773,7 +5808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -5799,7 +5834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -5810,7 +5845,7 @@
         <v>904</v>
       </c>
       <c r="D37">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E37">
         <v>425</v>
@@ -5825,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -5836,7 +5871,7 @@
         <v>1868</v>
       </c>
       <c r="D38">
-        <v>31.139</v>
+        <v>31.138999999999999</v>
       </c>
       <c r="E38">
         <v>90</v>
@@ -5851,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -5877,7 +5912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -5903,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -5926,7 +5961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -5949,7 +5984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>190</v>
       </c>
@@ -5975,7 +6010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -5998,7 +6033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>192</v>
       </c>
@@ -6021,7 +6056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>193</v>
       </c>
@@ -6047,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -6073,7 +6108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -6099,7 +6134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -6125,7 +6160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>197</v>
       </c>
@@ -6151,7 +6186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>198</v>
       </c>
@@ -6177,7 +6212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>199</v>
       </c>
@@ -6203,7 +6238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -6229,7 +6264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>201</v>
       </c>
@@ -6252,7 +6287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -6275,7 +6310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -6286,7 +6321,7 @@
         <v>2550</v>
       </c>
       <c r="D56">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E56">
         <v>188</v>
@@ -6301,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>204</v>
       </c>
@@ -6324,7 +6359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>205</v>
       </c>
@@ -6347,7 +6382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>206</v>
       </c>
@@ -6373,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -6396,7 +6431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>208</v>
       </c>
@@ -6422,7 +6457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>209</v>
       </c>
@@ -6448,7 +6483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>210</v>
       </c>
